--- a/data from links.xlsx
+++ b/data from links.xlsx
@@ -1,100 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bm.latypov\PycharmProjects\ec001\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data from links" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_tov_01 (9).xlsx</t>
-  </si>
-  <si>
-    <t>2325.93</t>
-  </si>
-  <si>
-    <t>1960.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3 </t>
-  </si>
-  <si>
-    <t>19137.5</t>
-  </si>
-  <si>
-    <t>22062.5</t>
-  </si>
-  <si>
-    <t>23812.5</t>
-  </si>
-  <si>
-    <t>VED</t>
-  </si>
-  <si>
-    <t>TOV</t>
-  </si>
-  <si>
-    <t>MP this year</t>
-  </si>
-  <si>
-    <t>MP last year</t>
-  </si>
-  <si>
-    <t>ES c203</t>
-  </si>
-  <si>
-    <t>ES c232</t>
-  </si>
-  <si>
-    <t>AM 400</t>
-  </si>
-  <si>
-    <t>AM 500</t>
-  </si>
-  <si>
-    <t>AM 600</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,22 +69,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,89 +454,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.5703125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="62.140625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="62" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.42578125" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12.28515625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="1" min="7" max="8"/>
+    <col width="9.140625" customWidth="1" style="7" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>TOV</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>VED</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>MP this year</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MP last year</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>es c203</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>es c232</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>am 400</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>am 500</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>am 600</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="S1" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="8" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_tov_01 (1).xlsx</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_VED_01 (1).xlsx</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>2325.93</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>1960.76</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.4 </t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3 </t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>19137.5</t>
+        </is>
+      </c>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>22062.5</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>23812.5</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_tov_01 (2).xlsx</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_VED_01 (2).xlsx</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2325.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1960.76</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.4 </t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3 </t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>19137.5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>22062.5</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>23812.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_tov_01 (3).xlsx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C:\Users\bm.latypov\Downloads\proizvoditeli_ind_VED_01 (3).xlsx</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2325.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1960.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.4 </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3 </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>19137.5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>22062.5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>23812.5</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>